--- a/vacaciones-backend/registros_vacaciones.xlsx
+++ b/vacaciones-backend/registros_vacaciones.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="F6" sqref="A2:F6"/>
@@ -597,6 +597,146 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>71122</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ERICK JOEL TEJADA MEJIA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>45012</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DANILO OGANDO PEREZ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>71122</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ERICK JOEL TEJADA MEJIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>71122</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ERICK JOEL TEJADA MEJIA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>71122</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ERICK JOEL TEJADA MEJIA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>15</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
